--- a/biology/Biologie cellulaire et moléculaire/ImageJ/ImageJ.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ImageJ/ImageJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ImageJ est un logiciel multiplate-forme, libre et open source de traitement et d'analyse d'images développé par les National Institutes of Health, en 1997[2]. Il est écrit en Java et permet l'ajout de fonctionnalités via des plugins et macros.
-ImageJ est exécuté comme un applet téléchargeable sur tout ordinateur disposant d'une machine virtuelle Java 5 ou ultérieure. Des distributions pour Microsoft Windows, Mac OS, Mac OS X, Linux, et Zaurus sont disponibles en téléchargement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ImageJ est un logiciel multiplate-forme, libre et open source de traitement et d'analyse d'images développé par les National Institutes of Health, en 1997. Il est écrit en Java et permet l'ajout de fonctionnalités via des plugins et macros.
+ImageJ est exécuté comme un applet téléchargeable sur tout ordinateur disposant d'une machine virtuelle Java 5 ou ultérieure. Des distributions pour Microsoft Windows, Mac OS, Mac OS X, Linux, et Zaurus sont disponibles en téléchargement.
 Le développeur du projet, Wayne Rasband, fait partie du Research Services Branch du National Institute of Mental Health.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ImageJ est un logiciel libre : le code source est en accès libre et peut être modifié. C'est un logiciel multiplateforme, en raison de son fonctionnement sur une machine virtuelle Java. 
 ImageJ peut visualiser, éditer, traiter, et analyser les images ou des piles d'images (stack) en 8-bits, 16-bits, 32-bits et les images couleur. ImageJ est capable d'ouvrir et sauver des images dans de nombreux formats, notamment en TIFF, PNG, GIF, JPEG, BMP, DICOM, FITS, mais aussi des images en format brut (raw). 
@@ -552,7 +566,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">ImageJ a été initialement développé pour des applications biomédicales. Il permet par exemple de faire des analyses de gels d'électrophorèse, ou de la détection et analyse de tumeurs. Son usage s'est depuis étendu à d'autres domaines, comme la science des matériaux (par exemple : détermination de tailles de grains, déterminations de taux de porosités sur des matériaux composites, traitement d'images obtenues par microtomographie X).
 </t>
@@ -583,9 +599,11 @@
           <t>ImageJ2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une version 2 nommée ImageJ2[4] est en cours de développement[Quand ?]. Elle peut déjà être utilisée en installant Fiji[5]. ImageJ2 peut être appelée depuis Python[6] via la bibliothèque pyimagej[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une version 2 nommée ImageJ2 est en cours de développement[Quand ?]. Elle peut déjà être utilisée en installant Fiji. ImageJ2 peut être appelée depuis Python via la bibliothèque pyimagej.
 </t>
         </is>
       </c>
